--- a/271025_Results_Med/output/m3/27102025_mod3_by_education.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_education.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5617,26 +5617,26 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>16 (51.6%)</t>
+          <t>16 (35.6%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>69 (45.7%)</t>
+          <t>69 (41.1%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>21 (53.8%)</t>
+          <t>21 (50.0%)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>33 (42.9%)</t>
+          <t>33 (40.2%)</t>
         </is>
       </c>
       <c r="H132">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="133">
@@ -5662,21 +5662,21 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>7 (4.6%)</t>
+          <t>7 (4.2%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2 (5.1%)</t>
+          <t>2 (4.8%)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>3 (3.9%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="H133">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="134">
@@ -5692,31 +5692,31 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>5 (16.1%)</t>
+          <t>1 (2.2%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>56 (37.1%)</t>
+          <t>4 (2.4%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>10 (25.6%)</t>
+          <t>1 (2.4%)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>35 (45.5%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="H134">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="135">
@@ -5732,31 +5732,31 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1 (3.2%)</t>
+          <t>5 (11.1%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>56 (33.3%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1 (2.6%)</t>
+          <t>10 (23.8%)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>35 (42.7%)</t>
         </is>
       </c>
       <c r="H135">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="136">
@@ -5772,111 +5772,111 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>9 (29.0%)</t>
+          <t>1 (2.2%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>18 (11.9%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>5 (12.8%)</t>
+          <t>1 (2.4%)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>5 (6.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="H136">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (28.9%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>13 (7.7%)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2 (10.5%)</t>
+          <t>2 (4.8%)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3 (9.4%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="H137">
-        <v>0.314</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1 (3.7%)</t>
+          <t>9 (20.0%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>3 (4.1%)</t>
+          <t>18 (10.7%)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2 (10.5%)</t>
+          <t>5 (11.9%)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2 (6.2%)</t>
+          <t>5 (6.1%)</t>
         </is>
       </c>
       <c r="H138">
-        <v>0.314</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="139">
@@ -5892,31 +5892,31 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>20 (74.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>59 (80.8%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>12 (63.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>24 (75.0%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H139">
-        <v>0.314</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="140">
@@ -5932,947 +5932,1330 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6 (22.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>10 (13.7%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>3 (15.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>3 (9.4%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H140">
-        <v>0.314</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1 (2.7%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1 (5.3%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H141">
-        <v>0.5901999999999999</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>36 (97.3%)</t>
+          <t>20 (32.8%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>93 (96.9%)</t>
+          <t>59 (30.6%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>18 (94.7%)</t>
+          <t>12 (24.5%)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>46 (100.0%)</t>
+          <t>24 (25.3%)</t>
         </is>
       </c>
       <c r="H142">
-        <v>0.5901999999999999</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>9 (16.4%)</t>
+          <t>24 (39.3%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>49 (31.6%)</t>
+          <t>72 (37.3%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>7 (17.9%)</t>
+          <t>24 (49.0%)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>17 (25.8%)</t>
+          <t>36 (37.9%)</t>
         </is>
       </c>
       <c r="H143">
-        <v>0.0193</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (14.8%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>44 (22.8%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3 (7.7%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>22 (23.2%)</t>
         </is>
       </c>
       <c r="H144">
-        <v>0.0193</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>10 (6.5%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>5 (12.8%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H145">
-        <v>0.0193</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>10 (16.4%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>10 (6.5%)</t>
+          <t>44 (22.8%)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2 (5.1%)</t>
+          <t>19 (38.8%)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>24 (25.3%)</t>
         </is>
       </c>
       <c r="H146">
-        <v>0.0193</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>39 (70.9%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>86 (55.5%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>22 (56.4%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>39 (59.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H147">
-        <v>0.0193</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>6 (10.5%)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>12 (6.7%)</t>
+          <t>13 (6.7%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>11 (12.5%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="H148">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7 (12.3%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>29 (16.1%)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>8 (9.1%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H149">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>11 (19.3%)</t>
+          <t>36 (59.0%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>26 (14.4%)</t>
+          <t>93 (48.2%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>7 (14.6%)</t>
+          <t>18 (36.7%)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>7 (8.0%)</t>
+          <t>46 (48.4%)</t>
         </is>
       </c>
       <c r="H150">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10 (17.5%)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>33 (18.3%)</t>
+          <t>31 (16.1%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>7 (14.6%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>23 (26.1%)</t>
+          <t>14 (14.7%)</t>
         </is>
       </c>
       <c r="H151">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>22 (38.6%)</t>
+          <t>9 (15.0%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>71 (39.4%)</t>
+          <t>49 (25.4%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>23 (47.9%)</t>
+          <t>7 (14.3%)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>37 (42.0%)</t>
+          <t>17 (17.9%)</t>
         </is>
       </c>
       <c r="H152">
-        <v>0.0523</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>5 (8.3%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>9 (5.0%)</t>
+          <t>38 (19.7%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>6 (12.5%)</t>
+          <t>13 (26.5%)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>33 (34.7%)</t>
         </is>
       </c>
       <c r="H153">
-        <v>0.0523</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (8.3%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (10.2%)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H154">
-        <v>0.7325</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H155">
-        <v>0.5163</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>39 (65.0%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>86 (44.6%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>22 (44.9%)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>39 (41.1%)</t>
         </is>
       </c>
       <c r="H156">
-        <v>0.1948</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (6.2%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5.0 (4.8–5.0)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (11.6%)</t>
         </is>
       </c>
       <c r="H157">
-        <v>0.5362</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>29 (15.0%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (8.4%)</t>
         </is>
       </c>
       <c r="H158">
-        <v>0.9584</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (18.0%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>26 (13.5%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>7 (14.3%)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>7 (7.4%)</t>
         </is>
       </c>
       <c r="H159">
-        <v>0.31</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>14 (23.0%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>46 (23.8%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (16.3%)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>30 (31.6%)</t>
         </is>
       </c>
       <c r="H160">
-        <v>0.9051</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>22 (36.1%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>71 (36.8%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>23 (46.9%)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>37 (38.9%)</t>
         </is>
       </c>
       <c r="H161">
-        <v>0.1785</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>9 (4.7%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H162">
-        <v>0.8884</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H163">
+        <v>0.5387</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H164">
-        <v>0.0757</v>
+        <v>0.8053</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H165">
+        <v>0.4133</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H166">
+        <v>0.6806</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H167">
+        <v>0.6802</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H168">
+        <v>0.7363</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>3.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="H169">
+        <v>0.7161999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H170">
+        <v>0.5138</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H171">
+        <v>0.6258</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H172">
+        <v>0.3413</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H173">
+        <v>0.0757</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>3.5 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>3.0 (2.0–3.2)</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="H165">
+      <c r="H174">
         <v>0.1863</v>
       </c>
     </row>

--- a/271025_Results_Med/output/m3/27102025_mod3_by_education.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_education.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,12 +417,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2 (1.7%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -432,11 +432,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H2">
-        <v>0.5937</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="3">
@@ -457,26 +457,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 (5.6%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10 (8.6%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3 (15.8%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H3">
-        <v>0.5937</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="4">
@@ -497,106 +497,106 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33 (91.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>104 (89.7%)</t>
+          <t>11 (5.7%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16 (84.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>43 (95.6%)</t>
+          <t>10 (10.5%)</t>
         </is>
       </c>
       <c r="H4">
-        <v>0.5937</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>33 (54.1%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>104 (53.9%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (32.7%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>43 (45.3%)</t>
         </is>
       </c>
       <c r="H5">
-        <v>0.0223</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>25 (41.0%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>66 (34.2%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>28 (57.1%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>40 (42.1%)</t>
         </is>
       </c>
       <c r="H6">
-        <v>0.0223</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="7">
@@ -612,27 +612,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7 (11.5%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27 (14.0%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12 (12.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H7">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
+          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -692,27 +692,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9 (4.7%)</t>
+          <t>27 (14.0%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8 (8.4%)</t>
+          <t>12 (12.6%)</t>
         </is>
       </c>
       <c r="H9">
@@ -732,7 +732,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -772,27 +772,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12 (6.2%)</t>
+          <t>9 (4.7%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5 (5.3%)</t>
+          <t>8 (8.4%)</t>
         </is>
       </c>
       <c r="H11">
@@ -812,17 +812,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6 (6.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H12">
@@ -852,27 +852,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>12 (6.2%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>5 (5.3%)</t>
         </is>
       </c>
       <c r="H13">
@@ -892,17 +892,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="H14">
@@ -932,17 +932,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H15">
@@ -972,22 +972,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1012,27 +1012,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20 (10.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6 (6.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H17">
@@ -1052,17 +1052,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6 (3.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5 (5.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H18">
@@ -1092,27 +1092,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>20 (10.4%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="H19">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La comodidad (confort)</t>
+          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>5 (5.3%)</t>
         </is>
       </c>
       <c r="H20">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La distancia que debe recorrer</t>
+          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H21">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La percepción de seguridad</t>
+          <t>El tiempo de viaje, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H22">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Otro</t>
+          <t>El tiempo de viaje, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H23">
@@ -1292,22 +1292,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
+          <t>El tiempo de viaje, La percepción de seguridad</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje, Otro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1342,17 +1342,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H25">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
+          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H26">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, Otro</t>
+          <t>La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H27">
@@ -1452,27 +1452,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La comodidad (confort)</t>
+          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12 (19.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>34 (17.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11 (11.6%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H28">
@@ -1492,22 +1492,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
+          <t>La autonomía o control sobre el viaje, Otro</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1532,27 +1532,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La comodidad (confort)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>12 (19.7%)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>34 (17.6%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>11 (11.6%)</t>
         </is>
       </c>
       <c r="H30">
@@ -1572,27 +1572,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El tiempo de viaje</t>
+          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5 (10.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6 (6.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H31">
@@ -1612,17 +1612,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
+          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1652,12 +1652,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La distancia que debe recorrer</t>
+          <t>La comodidad (confort), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>5 (10.2%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5 (5.3%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="H33">
@@ -1692,12 +1692,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La percepción de seguridad</t>
+          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H34">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Otro</t>
+          <t>La comodidad (confort), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1742,17 +1742,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>5 (5.3%)</t>
         </is>
       </c>
       <c r="H35">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
+          <t>La comodidad (confort), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>La comodidad (confort), Otro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H37">
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer</t>
+          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H38">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
+          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H39">
@@ -1932,27 +1932,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (8.2%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H40">
@@ -1972,27 +1972,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El tiempo de viaje</t>
+          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H41">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, La comodidad (confort)</t>
+          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H42">
@@ -2052,27 +2052,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
+          <t>La distancia que debe recorrer, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H43">
@@ -2092,17 +2092,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La percepción de seguridad</t>
+          <t>La distancia que debe recorrer, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H44">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
+          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H45">
@@ -2172,27 +2172,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La percepción de seguridad</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H46">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El tiempo de viaje</t>
+          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La comodidad (confort)</t>
+          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H48">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La distancia que debe recorrer</t>
+          <t>La percepción de seguridad, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2332,17 +2332,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>La percepción de seguridad, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H50">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental)</t>
+          <t>La percepción de seguridad, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2382,17 +2382,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H51">
@@ -2412,27 +2412,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H52">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H53">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H54">
@@ -2522,57 +2522,57 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Costo económico</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6 (3.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H55">
-        <v>0.2286</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Falta de autonomía / control</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2582,21 +2582,21 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H56">
-        <v>0.2286</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="57">
@@ -2612,27 +2612,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Impacto ambiental</t>
+          <t>Costo económico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H57">
@@ -2652,27 +2652,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Incomodidad / clima</t>
+          <t>Falta de autonomía / control</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17 (27.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>54 (28.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>18 (36.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>33 (34.7%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H58">
@@ -2692,27 +2692,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Inseguridad personal</t>
+          <t>Impacto ambiental</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6 (9.8%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9 (4.7%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6 (6.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H59">
@@ -2732,27 +2732,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nada le disgusta</t>
+          <t>Incomodidad / clima</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>18 (29.5%)</t>
+          <t>17 (27.9%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>52 (26.9%)</t>
+          <t>54 (28.0%)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>15 (30.6%)</t>
+          <t>18 (36.7%)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23 (24.2%)</t>
+          <t>33 (34.7%)</t>
         </is>
       </c>
       <c r="H60">
@@ -2772,27 +2772,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Inseguridad personal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>9 (4.7%)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="H61">
@@ -2812,27 +2812,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Riesgo de accidente</t>
+          <t>Nada le disgusta</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>18 (29.5%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>52 (26.9%)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>8 (16.3%)</t>
+          <t>15 (30.6%)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8 (8.4%)</t>
+          <t>23 (24.2%)</t>
         </is>
       </c>
       <c r="H62">
@@ -2852,27 +2852,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sin respuesta</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H63">
@@ -2892,27 +2892,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tiempo de viaje / espera</t>
+          <t>Riesgo de accidente</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11 (18.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>47 (24.4%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>8 (16.3%)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16 (16.8%)</t>
+          <t>8 (8.4%)</t>
         </is>
       </c>
       <c r="H64">
@@ -2922,81 +2922,81 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Congestión de tráfico</t>
+          <t>Sin respuesta</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6 (9.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>39 (20.2%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6 (12.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12 (12.6%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H65">
-        <v>0.1912</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Costos altos</t>
+          <t>Tiempo de viaje / espera</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (18.0%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>47 (24.4%)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (16.8%)</t>
         </is>
       </c>
       <c r="H66">
-        <v>0.1912</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="67">
@@ -3012,27 +3012,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
+          <t>Congestión de tráfico</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>39 (20.2%)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>12 (12.6%)</t>
         </is>
       </c>
       <c r="H67">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
+          <t>Congestión de tráfico, Costos altos</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3092,17 +3092,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H69">
@@ -3132,27 +3132,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Multitud de personas</t>
+          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5 (10.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H70">
@@ -3172,17 +3172,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
+          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3212,27 +3212,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
+          <t>Congestión de tráfico, Multitud de personas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (10.2%)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H72">
@@ -3252,17 +3252,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
+          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H73">
@@ -3292,27 +3292,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5 (5.3%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H74">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Costos altos, Congestión de tráfico</t>
+          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H75">
@@ -3372,27 +3372,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Costos altos, Dificultad para encontrar parqueadero</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (5.3%)</t>
         </is>
       </c>
       <c r="H76">
@@ -3412,22 +3412,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Costos altos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Costos altos, Multitud de personas</t>
+          <t>Costos altos, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Costos altos, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de espera largos o inciertos</t>
+          <t>Costos altos, Multitud de personas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3542,12 +3542,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3572,27 +3572,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
+          <t>Costos altos, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H81">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero</t>
+          <t>Costos altos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H83">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
+          <t>Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H84">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador</t>
+          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3742,17 +3742,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H85">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
+          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Multitud de personas</t>
+          <t>Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3822,17 +3822,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H87">
@@ -3852,27 +3852,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5 (8.2%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14 (7.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>10 (20.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>7 (7.4%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H88">
@@ -3892,27 +3892,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
+          <t>Esfuerzo físico agotador, Multitud de personas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H89">
@@ -3932,27 +3932,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (8.2%)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>14 (7.3%)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (20.4%)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>7 (7.4%)</t>
         </is>
       </c>
       <c r="H90">
@@ -3972,27 +3972,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H91">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4052,17 +4052,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4092,27 +4092,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H94">
@@ -4132,12 +4132,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H95">
@@ -4172,22 +4172,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4212,27 +4212,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7 (11.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>12 (12.6%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H97">
@@ -4252,27 +4252,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Multitud de personas, Congestión de tráfico</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H98">
@@ -4292,17 +4292,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Multitud de personas, Costos altos</t>
+          <t>Multitud de personas</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>12 (12.6%)</t>
         </is>
       </c>
       <c r="H99">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Multitud de personas, Esfuerzo físico agotador</t>
+          <t>Multitud de personas, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H100">
@@ -4372,27 +4372,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de robo o atraco</t>
+          <t>Multitud de personas, Costos altos</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H101">
@@ -4412,17 +4412,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Multitud de personas, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4452,17 +4452,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H103">
@@ -4492,22 +4492,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4532,17 +4532,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Otro, Ninguno</t>
+          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Otro, No sabe</t>
+          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4612,17 +4612,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Otro, Por comodidad</t>
+          <t>Otro, Ninguno</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H107">
@@ -4652,17 +4652,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
+          <t>Otro, No sabe</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Otro, Todas</t>
+          <t>Otro, Por comodidad</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4732,17 +4732,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco</t>
+          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H110">
@@ -4772,22 +4772,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
+          <t>Otro, Todas</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4812,17 +4812,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (8.2%)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H112">
@@ -4852,22 +4852,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
+          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4892,17 +4892,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H114">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H115">
@@ -4972,12 +4972,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
+          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H117">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H118">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H120">
@@ -5172,27 +5172,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos</t>
+          <t>Ser víctima de situaciones de discriminación</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>5 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>13 (6.7%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H121">
@@ -5212,27 +5212,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
+          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H122">
@@ -5252,27 +5252,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Costos altos</t>
+          <t>Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (8.2%)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (6.7%)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H123">
@@ -5292,27 +5292,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H124">
@@ -5332,27 +5332,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de espera largos o inciertos, Costos altos</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H125">
@@ -5372,27 +5372,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H126">
@@ -5412,27 +5412,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11 (5.7%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>5 (5.3%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H127">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
+          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H128">
@@ -5492,17 +5492,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (5.7%)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>5 (5.3%)</t>
         </is>
       </c>
       <c r="H129">
@@ -5532,17 +5532,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H130">
@@ -5572,17 +5572,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
+          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H131">
@@ -5602,81 +5602,81 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>16 (35.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>69 (41.1%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>21 (50.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>33 (40.2%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H132">
-        <v>0.0008</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bicicleta</t>
+          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>7 (4.2%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H133">
-        <v>0.0008</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="134">
@@ -5692,31 +5692,31 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Caminar</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>16 (26.2%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4 (2.4%)</t>
+          <t>70 (36.3%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1 (2.4%)</t>
+          <t>23 (46.9%)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>33 (34.7%)</t>
         </is>
       </c>
       <c r="H134">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="135">
@@ -5732,31 +5732,31 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Bicicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>5 (11.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>56 (33.3%)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>10 (23.8%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>35 (42.7%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H135">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="136">
@@ -5772,31 +5772,31 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1 (2.4%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H136">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="137">
@@ -5812,31 +5812,31 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Taxi</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>13 (28.9%)</t>
+          <t>5 (8.2%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>13 (7.7%)</t>
+          <t>56 (29.0%)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2 (4.8%)</t>
+          <t>10 (20.4%)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>35 (36.8%)</t>
         </is>
       </c>
       <c r="H137">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="138">
@@ -5852,57 +5852,57 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>9 (20.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>18 (10.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>5 (11.9%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>5 (6.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H138">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (21.3%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>13 (6.7%)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5916,47 +5916,47 @@
         </is>
       </c>
       <c r="H139">
-        <v>0.3404</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Falta de infraestructura / distancia</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (41.0%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>42 (21.8%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (18.4%)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>18 (18.9%)</t>
         </is>
       </c>
       <c r="H140">
-        <v>0.3404</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="141">
@@ -5972,17 +5972,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H141">
@@ -6012,27 +6012,27 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>20 (32.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>59 (30.6%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>12 (24.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>24 (25.3%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H142">
@@ -6052,27 +6052,27 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Modo actual</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>24 (39.3%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>72 (37.3%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>24 (49.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>36 (37.9%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H143">
@@ -6092,27 +6092,27 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>9 (14.8%)</t>
+          <t>20 (32.8%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>44 (22.8%)</t>
+          <t>59 (30.6%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>6 (12.2%)</t>
+          <t>12 (24.5%)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>22 (23.2%)</t>
+          <t>24 (25.3%)</t>
         </is>
       </c>
       <c r="H144">
@@ -6132,27 +6132,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>6 (9.8%)</t>
+          <t>24 (39.3%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>72 (37.3%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>24 (49.0%)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3 (3.2%)</t>
+          <t>36 (37.9%)</t>
         </is>
       </c>
       <c r="H145">
@@ -6162,22 +6162,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Industria/Obras</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10 (16.4%)</t>
+          <t>9 (14.8%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6187,56 +6187,56 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>19 (38.8%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>24 (25.3%)</t>
+          <t>22 (23.2%)</t>
         </is>
       </c>
       <c r="H146">
-        <v>0.6197</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="H147">
-        <v>0.6197</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="148">
@@ -6252,27 +6252,27 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Productos químicos</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>10 (16.4%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>13 (6.7%)</t>
+          <t>44 (22.8%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>19 (38.8%)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>6 (6.3%)</t>
+          <t>24 (25.3%)</t>
         </is>
       </c>
       <c r="H148">
@@ -6292,17 +6292,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Quema de residuos</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>7 (3.6%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H149">
@@ -6332,27 +6332,27 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>36 (59.0%)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>93 (48.2%)</t>
+          <t>13 (6.7%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>18 (36.7%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>46 (48.4%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="H150">
@@ -6372,27 +6372,27 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vertederos (basureros) y rellenos sanitarios</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>7 (11.5%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>31 (16.1%)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>14 (14.7%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H151">
@@ -6402,81 +6402,81 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>9 (15.0%)</t>
+          <t>36 (59.0%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>49 (25.4%)</t>
+          <t>93 (48.2%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>7 (14.3%)</t>
+          <t>18 (36.7%)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>17 (17.9%)</t>
+          <t>46 (48.4%)</t>
         </is>
       </c>
       <c r="H152">
-        <v>0.0091</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5 (8.3%)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>38 (19.7%)</t>
+          <t>31 (16.1%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>13 (26.5%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>33 (34.7%)</t>
+          <t>14 (14.7%)</t>
         </is>
       </c>
       <c r="H153">
-        <v>0.0091</v>
+        <v>0.6197</v>
       </c>
     </row>
     <row r="154">
@@ -6492,31 +6492,31 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5 (8.3%)</t>
+          <t>9 (14.8%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>49 (25.4%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>5 (10.2%)</t>
+          <t>10 (20.4%)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>21 (22.1%)</t>
         </is>
       </c>
       <c r="H154">
-        <v>0.0091</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="155">
@@ -6532,31 +6532,31 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2 (3.3%)</t>
+          <t>5 (8.2%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>38 (19.7%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>10 (20.4%)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>29 (30.5%)</t>
         </is>
       </c>
       <c r="H155">
-        <v>0.0091</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="156">
@@ -6572,111 +6572,111 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>39 (65.0%)</t>
+          <t>5 (8.2%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>86 (44.6%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>22 (44.9%)</t>
+          <t>5 (10.2%)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>39 (41.1%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H156">
-        <v>0.0091</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>6 (9.8%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>12 (6.2%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>11 (11.6%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H157">
-        <v>0.0363</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7 (11.5%)</t>
+          <t>40 (65.6%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>29 (15.0%)</t>
+          <t>86 (44.6%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>22 (44.9%)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>8 (8.4%)</t>
+          <t>39 (41.1%)</t>
         </is>
       </c>
       <c r="H158">
-        <v>0.0363</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="159">
@@ -6692,27 +6692,27 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>11 (18.0%)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>26 (13.5%)</t>
+          <t>12 (6.2%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>7 (14.3%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>7 (7.4%)</t>
+          <t>11 (11.6%)</t>
         </is>
       </c>
       <c r="H159">
@@ -6732,27 +6732,27 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>14 (23.0%)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>46 (23.8%)</t>
+          <t>29 (15.0%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>8 (16.3%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>30 (31.6%)</t>
+          <t>8 (8.4%)</t>
         </is>
       </c>
       <c r="H160">
@@ -6772,27 +6772,27 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>22 (36.1%)</t>
+          <t>11 (18.0%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>71 (36.8%)</t>
+          <t>26 (13.5%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>23 (46.9%)</t>
+          <t>7 (14.3%)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>37 (38.9%)</t>
+          <t>7 (7.4%)</t>
         </is>
       </c>
       <c r="H161">
@@ -6812,27 +6812,27 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>14 (23.0%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>9 (4.7%)</t>
+          <t>46 (23.8%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>6 (12.2%)</t>
+          <t>8 (16.3%)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>30 (31.6%)</t>
         </is>
       </c>
       <c r="H162">
@@ -6842,421 +6842,501 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>22 (36.1%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>71 (36.8%)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>23 (46.9%)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>37 (38.9%)</t>
         </is>
       </c>
       <c r="H163">
-        <v>0.5387</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>9 (4.7%)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H164">
-        <v>0.8053</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Importancia del costo de compra</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>5.0 (4.0–5.0)</t>
-        </is>
-      </c>
       <c r="H165">
-        <v>0.4133</v>
+        <v>0.5387</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H166">
-        <v>0.6806</v>
+        <v>0.8053</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Importancia de la comodidad</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5.0 (2.0–5.0)</t>
+          <t>5.0 (5.0–5.0)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="H167">
-        <v>0.6802</v>
+        <v>0.4133</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Importancia del tiempo de viaje</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.0 (1.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="H168">
-        <v>0.7363</v>
+        <v>0.6806</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p28_importancia_riesgo_robo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Importancia del riesgo de robo o atraco</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3.0 (2.0–5.0)</t>
+          <t>5.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>3.0 (1.5–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H169">
-        <v>0.7161999999999999</v>
+        <v>0.6802</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p28_importancia_riesgo_acoso</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Importancia del riesgo de acoso</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>4.0 (2.0–5.0)</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>4.0 (2.0–5.0)</t>
-        </is>
-      </c>
       <c r="H170">
-        <v>0.5138</v>
+        <v>0.7363</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p28_importancia_discriminacion</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Importancia del riesgo de discriminación</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3.0 (1.5–5.0)</t>
         </is>
       </c>
       <c r="H171">
-        <v>0.6258</v>
+        <v>0.7161999999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
+          <t>Importancia del nivel de emisiones</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="H172">
-        <v>0.3413</v>
+        <v>0.5138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia de la siniestralidad vial</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>4.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H173">
-        <v>0.0757</v>
+        <v>0.6258</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H174">
+        <v>0.3413</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–2.0)</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>3.5 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>3.0 (2.0–3.2)</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="H174">
-        <v>0.1863</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H176">
+        <v>0.0002</v>
       </c>
     </row>
   </sheetData>
